--- a/doc/毕设权限清单.xlsx
+++ b/doc/毕设权限清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SupplyManagement\SupplyManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5F1BE-94A2-42D8-A06C-B9B31AF701C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC88B4-48DB-4F16-AC3A-349078E21425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="2265" windowWidth="25845" windowHeight="12375" activeTab="1" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
+    <workbookView xWindow="-25965" yWindow="2445" windowWidth="13395" windowHeight="12120" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1782,10 +1782,160 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1794,161 +1944,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2289,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83EC4-E9A6-42FE-925A-C7E39270146A}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2688,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39993C0-F948-40E7-8D9D-52BD145AF0DE}">
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="101" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -2778,25 +2778,25 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="30">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="96" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -2825,13 +2825,13 @@
       <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="77"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="90"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="30" t="s">
         <v>76</v>
       </c>
@@ -2893,25 +2893,25 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="96" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -2929,7 +2929,7 @@
       <c r="M6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="96" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="25"/>
@@ -2940,13 +2940,13 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="89"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="34" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +2962,7 @@
       <c r="M7" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="89"/>
+      <c r="N7" s="118"/>
       <c r="O7" s="34"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -2971,13 +2971,13 @@
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B8" s="80"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="30" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="M8" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="90"/>
+      <c r="N8" s="97"/>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -3002,25 +3002,25 @@
       <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="96" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -3049,13 +3049,13 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="45" t="s">
         <v>115</v>
       </c>
@@ -3082,29 +3082,29 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="93" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="107" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="104" t="s">
         <v>127</v>
       </c>
       <c r="O11" s="39" t="s">
@@ -3125,19 +3125,19 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="99"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="39" t="s">
         <v>122</v>
       </c>
@@ -3156,19 +3156,19 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="100"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="39" t="s">
         <v>123</v>
       </c>
@@ -3187,29 +3187,29 @@
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="93" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="101" t="s">
+      <c r="J14" s="107" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="101" t="s">
+      <c r="K14" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="114" t="s">
+      <c r="M14" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="98" t="s">
+      <c r="N14" s="104" t="s">
         <v>127</v>
       </c>
       <c r="O14" s="39" t="s">
@@ -3230,19 +3230,19 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="106"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="42" t="s">
         <v>126</v>
       </c>
@@ -3265,105 +3265,109 @@
       <c r="B17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1">
       <c r="B20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1">
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1">
       <c r="B24" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="N11:N13"/>
@@ -3376,23 +3380,19 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C9:C15"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/毕设权限清单.xlsx
+++ b/doc/毕设权限清单.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SupplyManagement\SupplyManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC88B4-48DB-4F16-AC3A-349078E21425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48F3AC-3DC6-43E8-89AD-BD7AA5509357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25965" yWindow="2445" windowWidth="13395" windowHeight="12120" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
+    <workbookView xWindow="-28920" yWindow="-7335" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1782,6 +1783,138 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1817,138 +1950,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2289,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83EC4-E9A6-42FE-925A-C7E39270146A}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" activeCellId="2" sqref="E2:E18 G2:G18 J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2778,25 +2779,25 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="30">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="108" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="88" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -2825,13 +2826,13 @@
       <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="127"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="90"/>
       <c r="I4" s="30" t="s">
         <v>76</v>
       </c>
@@ -2893,25 +2894,25 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="78" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="110" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="88" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -2929,7 +2930,7 @@
       <c r="M6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="88" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="25"/>
@@ -2940,13 +2941,13 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="102"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="118"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="34" t="s">
         <v>97</v>
       </c>
@@ -2962,7 +2963,7 @@
       <c r="M7" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="118"/>
+      <c r="N7" s="89"/>
       <c r="O7" s="34"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -2971,13 +2972,13 @@
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B8" s="103"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="90"/>
       <c r="I8" s="30" t="s">
         <v>98</v>
       </c>
@@ -2993,7 +2994,7 @@
       <c r="M8" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="97"/>
+      <c r="N8" s="90"/>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -3002,25 +3003,25 @@
       <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="88" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -3049,13 +3050,13 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="102"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="118"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="45" t="s">
         <v>115</v>
       </c>
@@ -3082,29 +3083,29 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="102"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="110" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="M11" s="92" t="s">
+      <c r="M11" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="98" t="s">
         <v>127</v>
       </c>
       <c r="O11" s="39" t="s">
@@ -3125,19 +3126,19 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="102"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="105"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="99"/>
       <c r="O12" s="39" t="s">
         <v>122</v>
       </c>
@@ -3156,19 +3157,19 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="102"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="106"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="100"/>
       <c r="O13" s="39" t="s">
         <v>123</v>
       </c>
@@ -3187,29 +3188,29 @@
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="102"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="110" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="107" t="s">
+      <c r="K14" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="107" t="s">
+      <c r="L14" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="98" t="s">
         <v>127</v>
       </c>
       <c r="O14" s="39" t="s">
@@ -3230,19 +3231,19 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="113"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="106"/>
       <c r="O15" s="42" t="s">
         <v>126</v>
       </c>
@@ -3265,109 +3266,105 @@
       <c r="B17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="127" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1">
       <c r="B20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="121" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="123"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="127" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1">
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="123"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1">
       <c r="B24" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="N11:N13"/>
@@ -3380,19 +3377,23 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C9:C15"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3616,4 +3617,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCF5F03-915C-40CD-B06B-74FB4E16E976}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/毕设权限清单.xlsx
+++ b/doc/毕设权限清单.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SupplyManagement\SupplyManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48F3AC-3DC6-43E8-89AD-BD7AA5509357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAE69F8-4D86-4AF1-865F-00EEF1300A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-7335" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
   </bookViews>
@@ -826,10 +826,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发送中·</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/creator/objects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,6 +851,10 @@
   </si>
   <si>
     <t>/creator/objects-orders/supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,6 +917,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1560,7 +1567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1783,10 +1790,160 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,164 +1952,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2291,7 +2301,7 @@
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" activeCellId="2" sqref="E2:E18 G2:G18 J2:J18"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2779,25 +2789,25 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="30">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="122" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="96" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -2826,13 +2836,13 @@
       <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="77"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="90"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="124"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="97"/>
       <c r="I4" s="30" t="s">
         <v>76</v>
       </c>
@@ -2894,25 +2904,25 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="122" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="84" t="s">
+      <c r="E6" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="122" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="96" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -2930,7 +2940,7 @@
       <c r="M6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="88" t="s">
+      <c r="N6" s="96" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="25"/>
@@ -2941,13 +2951,13 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="79"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="89"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="118"/>
       <c r="I7" s="34" t="s">
         <v>97</v>
       </c>
@@ -2963,7 +2973,7 @@
       <c r="M7" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="89"/>
+      <c r="N7" s="118"/>
       <c r="O7" s="34"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -2972,13 +2982,13 @@
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B8" s="80"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="90"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="97"/>
       <c r="I8" s="30" t="s">
         <v>98</v>
       </c>
@@ -2994,7 +3004,7 @@
       <c r="M8" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="90"/>
+      <c r="N8" s="97"/>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -3003,25 +3013,25 @@
       <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="122" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="108" t="s">
+      <c r="G9" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="88" t="s">
+      <c r="H9" s="96" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -3050,13 +3060,13 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="79"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="89"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="118"/>
       <c r="I10" s="45" t="s">
         <v>115</v>
       </c>
@@ -3083,36 +3093,36 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="79"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="93" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="101" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" s="101" t="s">
+      <c r="J11" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="107" t="s">
         <v>135</v>
       </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="98" t="s">
+      <c r="N11" s="104" t="s">
         <v>127</v>
       </c>
       <c r="O11" s="39" t="s">
         <v>121</v>
       </c>
       <c r="P11" s="40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="40" t="s">
         <v>137</v>
@@ -3126,24 +3136,24 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="79"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="99"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="39" t="s">
         <v>122</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>139</v>
@@ -3157,24 +3167,24 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="79"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="100"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="106"/>
       <c r="O13" s="39" t="s">
         <v>123</v>
       </c>
       <c r="P13" s="40" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="40" t="s">
         <v>138</v>
@@ -3188,36 +3198,36 @@
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="79"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="93" t="s">
+      <c r="B14" s="102"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="101" t="s">
+      <c r="J14" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="107" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="114" t="s">
+      <c r="M14" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="98" t="s">
+      <c r="N14" s="104" t="s">
         <v>127</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>125</v>
       </c>
       <c r="P14" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="40" t="s">
         <v>140</v>
@@ -3231,24 +3241,24 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="80"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="106"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="114"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="113"/>
       <c r="O15" s="42" t="s">
         <v>126</v>
       </c>
       <c r="P15" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q15" s="43" t="s">
         <v>141</v>
@@ -3266,105 +3276,109 @@
       <c r="B17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="95" t="s">
+      <c r="C17" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="129"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1">
       <c r="B20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="79"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="118" t="s">
+      <c r="C21" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="85"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1">
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="123"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="79"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1">
       <c r="B24" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="125"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="N11:N13"/>
@@ -3377,23 +3391,19 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C9:C15"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3405,15 +3415,15 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="7" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -3471,7 +3481,7 @@
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
       <c r="E5" s="70" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F5" s="130" t="s">
         <v>178</v>
@@ -3624,10 +3634,15 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="131"/>
+    <col min="2" max="6" width="9" style="131" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="131"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/毕设权限清单.xlsx
+++ b/doc/毕设权限清单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\SupplyManagement\SupplyManagement\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAE69F8-4D86-4AF1-865F-00EEF1300A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E8EB29-3A6B-486C-BCCA-5D5A884DF9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7335" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
+    <workbookView xWindow="825" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F0B52EC9-B555-4F4C-A148-2985940E47C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1781,6 +1781,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,6 +1791,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1826,143 +1961,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2300,7 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE83EC4-E9A6-42FE-925A-C7E39270146A}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -2377,7 +2377,7 @@
       <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="71" t="s">
+      <c r="I4" s="72" t="s">
         <v>66</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -2402,7 +2402,7 @@
       <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="72"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="73"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="10" t="s">
         <v>17</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="H7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="71" t="s">
+      <c r="I7" s="72" t="s">
         <v>62</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -2467,7 +2467,7 @@
       <c r="H8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="72"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="7" t="s">
         <v>24</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="H9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="73"/>
       <c r="J9" s="12" t="s">
         <v>35</v>
       </c>
@@ -2507,7 +2507,7 @@
       <c r="H10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="73"/>
       <c r="J10" s="12" t="s">
         <v>25</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="H11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="73"/>
       <c r="J11" s="12" t="s">
         <v>69</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="H12" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="73"/>
       <c r="J12" s="12" t="s">
         <v>26</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="H13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="73"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="10" t="s">
         <v>30</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="H15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="72" t="s">
         <v>64</v>
       </c>
       <c r="J15" s="12" t="s">
@@ -2631,7 +2631,7 @@
       <c r="H16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="73"/>
       <c r="J16" s="10" t="s">
         <v>49</v>
       </c>
@@ -2651,7 +2651,7 @@
       <c r="H17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="73"/>
       <c r="J17" s="10" t="s">
         <v>51</v>
       </c>
@@ -2671,7 +2671,7 @@
       <c r="H18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="73"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="12" t="s">
         <v>53</v>
       </c>
@@ -2789,25 +2789,25 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="30">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="89" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -2836,13 +2836,13 @@
       <c r="T3" s="29"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="127"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="124"/>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="97"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="30" t="s">
         <v>76</v>
       </c>
@@ -2904,25 +2904,25 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="79" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="115" t="s">
+      <c r="C6" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="122" t="s">
+      <c r="D6" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="122" t="s">
+      <c r="E6" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="88" t="s">
+      <c r="G6" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="89" t="s">
         <v>87</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -2940,7 +2940,7 @@
       <c r="M6" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="N6" s="96" t="s">
+      <c r="N6" s="89" t="s">
         <v>87</v>
       </c>
       <c r="O6" s="25"/>
@@ -2951,13 +2951,13 @@
       <c r="T6" s="29"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="102"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="118"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="34" t="s">
         <v>97</v>
       </c>
@@ -2973,7 +2973,7 @@
       <c r="M7" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="118"/>
+      <c r="N7" s="90"/>
       <c r="O7" s="34"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
@@ -2982,13 +2982,13 @@
       <c r="T7" s="33"/>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B8" s="103"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="97"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="91"/>
       <c r="I8" s="30" t="s">
         <v>98</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="M8" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="97"/>
+      <c r="N8" s="91"/>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
@@ -3013,25 +3013,25 @@
       <c r="T8" s="32"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="119" t="s">
+      <c r="F9" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="109" t="s">
         <v>164</v>
       </c>
-      <c r="H9" s="96" t="s">
+      <c r="H9" s="89" t="s">
         <v>86</v>
       </c>
       <c r="I9" s="51" t="s">
@@ -3060,13 +3060,13 @@
       <c r="T9" s="29"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="102"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="118"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="90"/>
       <c r="I10" s="45" t="s">
         <v>115</v>
       </c>
@@ -3093,29 +3093,29 @@
       <c r="T10" s="33"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="102"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="110" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="J11" s="107" t="s">
+      <c r="J11" s="102" t="s">
         <v>179</v>
       </c>
-      <c r="K11" s="107" t="s">
+      <c r="K11" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="107" t="s">
+      <c r="L11" s="102" t="s">
         <v>135</v>
       </c>
-      <c r="M11" s="92" t="s">
+      <c r="M11" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="99" t="s">
         <v>127</v>
       </c>
       <c r="O11" s="39" t="s">
@@ -3136,19 +3136,19 @@
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="102"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="105"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="100"/>
       <c r="O12" s="39" t="s">
         <v>122</v>
       </c>
@@ -3167,19 +3167,19 @@
       </c>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="102"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="106"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="118"/>
+      <c r="N13" s="101"/>
       <c r="O13" s="39" t="s">
         <v>123</v>
       </c>
@@ -3198,29 +3198,29 @@
       </c>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="102"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="110" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="102" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="107" t="s">
+      <c r="K14" s="102" t="s">
         <v>85</v>
       </c>
-      <c r="L14" s="107" t="s">
+      <c r="L14" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="92" t="s">
+      <c r="M14" s="115" t="s">
         <v>145</v>
       </c>
-      <c r="N14" s="104" t="s">
+      <c r="N14" s="99" t="s">
         <v>127</v>
       </c>
       <c r="O14" s="39" t="s">
@@ -3241,19 +3241,19 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B15" s="103"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="121"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="113"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="107"/>
       <c r="O15" s="42" t="s">
         <v>126</v>
       </c>
@@ -3276,109 +3276,105 @@
       <c r="B17" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C17" s="98" t="s">
+      <c r="C17" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="67" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="76"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="121"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1">
       <c r="B20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="77" t="s">
+      <c r="C20" s="122" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="128" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="85"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1">
       <c r="B23" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="79"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="124"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" thickBot="1">
       <c r="B24" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C24" s="80" t="s">
+      <c r="C24" s="125" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
+      <c r="D24" s="126"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="H9:H15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="E9:E15"/>
-    <mergeCell ref="D9:D15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M11:M13"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="N11:N13"/>
@@ -3391,19 +3387,23 @@
     <mergeCell ref="K14:K15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="C9:C15"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M11:M13"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="E9:E15"/>
+    <mergeCell ref="D9:D15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3414,16 +3414,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB0128D-2F86-4388-960F-B1FD46FD6CD2}">
   <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="7" width="4.5" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -3434,11 +3435,11 @@
       <c r="D2" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="130" t="s">
+      <c r="E2" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="70" t="s">
@@ -3483,10 +3484,10 @@
       <c r="E5" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="G5" s="130"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="70" t="s">
@@ -3536,11 +3537,11 @@
       <c r="D8" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="69"/>
@@ -3633,15 +3634,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCF5F03-915C-40CD-B06B-74FB4E16E976}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="131"/>
-    <col min="2" max="6" width="9" style="131" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="131"/>
+    <col min="1" max="1" width="9" style="71"/>
+    <col min="2" max="6" width="9" style="71" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="71"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
